--- a/src/test/resources/data/Credentials.xlsx
+++ b/src/test/resources/data/Credentials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -431,6 +431,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
